--- a/data_year/zb/对外经济贸易/按行业分外商直接投资额/实际使用金额.xlsx
+++ b/data_year/zb/对外经济贸易/按行业分外商直接投资额/实际使用金额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1292 +543,840 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101188</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>224373</v>
+      </c>
+      <c r="C2" t="n">
+        <v>93494</v>
+      </c>
+      <c r="D2" t="n">
+        <v>248667</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>67594</v>
+        <v>191195</v>
       </c>
       <c r="G2" t="n">
-        <v>2584417</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>4959058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9017</v>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>4071500</v>
+        <v>11473000</v>
       </c>
       <c r="K2" t="n">
-        <v>218544</v>
+        <v>205268</v>
       </c>
       <c r="L2" t="n">
-        <v>90542</v>
+        <v>146062</v>
       </c>
       <c r="M2" t="n">
-        <v>465751</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>2398556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>659566</v>
+      </c>
+      <c r="O2" t="n">
+        <v>818</v>
+      </c>
+      <c r="P2" t="n">
+        <v>43612</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>90859</v>
+      </c>
       <c r="R2" t="n">
-        <v>224212</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>212477</v>
+      </c>
+      <c r="S2" t="n">
+        <v>196692</v>
+      </c>
+      <c r="T2" t="n">
+        <v>713023</v>
+      </c>
       <c r="U2" t="n">
-        <v>58328</v>
+        <v>68440</v>
       </c>
       <c r="V2" t="n">
-        <v>7629</v>
+        <v>112347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90890</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>319079</v>
+      </c>
+      <c r="C3" t="n">
+        <v>84289</v>
+      </c>
+      <c r="D3" t="n">
+        <v>269918</v>
+      </c>
+      <c r="E3" t="n">
+        <v>66</v>
+      </c>
       <c r="F3" t="n">
-        <v>89873</v>
+        <v>200888</v>
       </c>
       <c r="G3" t="n">
-        <v>3090747</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>5210054</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7751</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>4687800</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>12399000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>188357</v>
+      </c>
       <c r="L3" t="n">
-        <v>80670</v>
+        <v>91694</v>
       </c>
       <c r="M3" t="n">
-        <v>513655</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>2688152</v>
+      </c>
+      <c r="N3" t="n">
+        <v>842455</v>
+      </c>
+      <c r="O3" t="n">
+        <v>395</v>
+      </c>
+      <c r="P3" t="n">
+        <v>63455</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>86427</v>
+      </c>
       <c r="R3" t="n">
-        <v>227276</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>211843</v>
+      </c>
+      <c r="S3" t="n">
+        <v>245781</v>
+      </c>
+      <c r="T3" t="n">
+        <v>838247</v>
+      </c>
       <c r="U3" t="n">
-        <v>81102</v>
+        <v>61279</v>
       </c>
       <c r="V3" t="n">
-        <v>3527</v>
+        <v>190970</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91346</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>347376</v>
+      </c>
+      <c r="C4" t="n">
+        <v>70157</v>
+      </c>
+      <c r="D4" t="n">
+        <v>335809</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" t="n">
-        <v>102764</v>
+        <v>206220</v>
       </c>
       <c r="G4" t="n">
-        <v>3679998</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>4886649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6430</v>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>5274000</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>12107000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>116451</v>
+      </c>
       <c r="L4" t="n">
-        <v>70877</v>
+        <v>118176</v>
       </c>
       <c r="M4" t="n">
-        <v>566277</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>2412487</v>
+      </c>
+      <c r="N4" t="n">
+        <v>946187</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3437</v>
+      </c>
+      <c r="P4" t="n">
+        <v>53655</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>85028</v>
+      </c>
       <c r="R4" t="n">
-        <v>137508</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>163897</v>
+      </c>
+      <c r="S4" t="n">
+        <v>309554</v>
+      </c>
+      <c r="T4" t="n">
+        <v>821105</v>
+      </c>
       <c r="U4" t="n">
-        <v>58106</v>
+        <v>77046</v>
       </c>
       <c r="V4" t="n">
-        <v>10665</v>
+        <v>211945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86737</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>421738</v>
+      </c>
+      <c r="C5" t="n">
+        <v>77181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>288056</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
       <c r="F5" t="n">
-        <v>100084</v>
+        <v>180003</v>
       </c>
       <c r="G5" t="n">
-        <v>3693570</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>4555498</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6435</v>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>5350500</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>12391000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>65693</v>
+      </c>
       <c r="L5" t="n">
-        <v>61176</v>
+        <v>121983</v>
       </c>
       <c r="M5" t="n">
-        <v>523560</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+        <v>2879807</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1151099</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1822</v>
+      </c>
+      <c r="P5" t="n">
+        <v>82079</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>103586</v>
+      </c>
       <c r="R5" t="n">
-        <v>129538</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+        <v>242910</v>
+      </c>
+      <c r="S5" t="n">
+        <v>275026</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1036158</v>
+      </c>
       <c r="U5" t="n">
-        <v>33635</v>
+        <v>36495</v>
       </c>
       <c r="V5" t="n">
-        <v>23199</v>
+        <v>233046</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>445559</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65021</v>
+      </c>
+      <c r="D6" t="n">
+        <v>275511</v>
+      </c>
+      <c r="E6" t="n">
+        <v>930</v>
+      </c>
+      <c r="F6" t="n">
+        <v>152227</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3993872</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7757</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>6063000</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+        <v>12850000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>71813</v>
+      </c>
+      <c r="L6" t="n">
+        <v>123949</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3462611</v>
+      </c>
+      <c r="N6" t="n">
+        <v>946340</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2097</v>
+      </c>
+      <c r="P6" t="n">
+        <v>82338</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>57349</v>
+      </c>
+      <c r="R6" t="n">
+        <v>220290</v>
+      </c>
+      <c r="S6" t="n">
+        <v>325466</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1248588</v>
+      </c>
+      <c r="U6" t="n">
+        <v>56222</v>
+      </c>
+      <c r="V6" t="n">
+        <v>418216</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181230</v>
+        <v>418607</v>
       </c>
       <c r="C7" t="n">
-        <v>56017</v>
+        <v>43398</v>
       </c>
       <c r="D7" t="n">
-        <v>101454</v>
+        <v>383556</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>71826</v>
+        <v>153386</v>
       </c>
       <c r="G7" t="n">
-        <v>4245291</v>
+        <v>3954290</v>
       </c>
       <c r="H7" t="n">
-        <v>3926</v>
+        <v>14338</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>6032500</v>
+        <v>13558000</v>
       </c>
       <c r="K7" t="n">
-        <v>26001</v>
+        <v>72131</v>
       </c>
       <c r="L7" t="n">
-        <v>49020</v>
+        <v>155876</v>
       </c>
       <c r="M7" t="n">
-        <v>541807</v>
+        <v>2899484</v>
       </c>
       <c r="N7" t="n">
-        <v>103854</v>
+        <v>1202313</v>
       </c>
       <c r="O7" t="n">
-        <v>1775</v>
+        <v>2894</v>
       </c>
       <c r="P7" t="n">
-        <v>30543</v>
+        <v>78941</v>
       </c>
       <c r="Q7" t="n">
-        <v>13906</v>
+        <v>43334</v>
       </c>
       <c r="R7" t="n">
-        <v>139437</v>
+        <v>225022</v>
       </c>
       <c r="S7" t="n">
-        <v>34041</v>
+        <v>452936</v>
       </c>
       <c r="T7" t="n">
-        <v>374507</v>
+        <v>1004973</v>
       </c>
       <c r="U7" t="n">
-        <v>35495</v>
+        <v>24292</v>
       </c>
       <c r="V7" t="n">
-        <v>21969</v>
+        <v>1496889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198485</v>
+        <v>508944</v>
       </c>
       <c r="C8" t="n">
-        <v>82764</v>
+        <v>36512</v>
       </c>
       <c r="D8" t="n">
-        <v>107049</v>
+        <v>844249</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>59945</v>
+        <v>189770</v>
       </c>
       <c r="G8" t="n">
-        <v>4007671</v>
+        <v>3549230</v>
       </c>
       <c r="H8" t="n">
-        <v>1517</v>
+        <v>25411</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>6582100</v>
+        <v>13371000</v>
       </c>
       <c r="K8" t="n">
-        <v>50402</v>
+        <v>49038</v>
       </c>
       <c r="L8" t="n">
-        <v>68801</v>
+        <v>247744</v>
       </c>
       <c r="M8" t="n">
-        <v>822950</v>
+        <v>1965528</v>
       </c>
       <c r="N8" t="n">
-        <v>178941</v>
+        <v>1587016</v>
       </c>
       <c r="O8" t="n">
-        <v>2940</v>
+        <v>9437</v>
       </c>
       <c r="P8" t="n">
-        <v>24136</v>
+        <v>26732</v>
       </c>
       <c r="Q8" t="n">
-        <v>19517</v>
+        <v>42159</v>
       </c>
       <c r="R8" t="n">
-        <v>128136</v>
+        <v>214677</v>
       </c>
       <c r="S8" t="n">
-        <v>50413</v>
+        <v>651989</v>
       </c>
       <c r="T8" t="n">
-        <v>422266</v>
+        <v>1613171</v>
       </c>
       <c r="U8" t="n">
-        <v>46052</v>
+        <v>9634</v>
       </c>
       <c r="V8" t="n">
-        <v>29369</v>
+        <v>1028901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200676</v>
+        <v>558803</v>
       </c>
       <c r="C9" t="n">
-        <v>104165</v>
+        <v>41914</v>
       </c>
       <c r="D9" t="n">
-        <v>148524</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>2091861</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3057</v>
+      </c>
       <c r="F9" t="n">
-        <v>92407</v>
+        <v>107492</v>
       </c>
       <c r="G9" t="n">
-        <v>4086482</v>
+        <v>3350619</v>
       </c>
       <c r="H9" t="n">
-        <v>1157</v>
+        <v>30516</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>7477000</v>
+        <v>13632000</v>
       </c>
       <c r="K9" t="n">
-        <v>72270</v>
+        <v>56723</v>
       </c>
       <c r="L9" t="n">
-        <v>43424</v>
+        <v>261940</v>
       </c>
       <c r="M9" t="n">
-        <v>1708873</v>
+        <v>1685559</v>
       </c>
       <c r="N9" t="n">
-        <v>267652</v>
+        <v>1147808</v>
       </c>
       <c r="O9" t="n">
-        <v>3246</v>
+        <v>7747</v>
       </c>
       <c r="P9" t="n">
-        <v>45109</v>
+        <v>69846</v>
       </c>
       <c r="Q9" t="n">
-        <v>27283</v>
+        <v>56951</v>
       </c>
       <c r="R9" t="n">
-        <v>107255</v>
+        <v>352132</v>
       </c>
       <c r="S9" t="n">
-        <v>91668</v>
+        <v>684373</v>
       </c>
       <c r="T9" t="n">
-        <v>401881</v>
+        <v>1673855</v>
       </c>
       <c r="U9" t="n">
-        <v>48944</v>
+        <v>130198</v>
       </c>
       <c r="V9" t="n">
-        <v>25729</v>
+        <v>792119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285131</v>
+        <v>472737</v>
       </c>
       <c r="C10" t="n">
-        <v>93851</v>
+        <v>90107</v>
       </c>
       <c r="D10" t="n">
-        <v>277479</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>1166127</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
       <c r="F10" t="n">
-        <v>119102</v>
+        <v>80131</v>
       </c>
       <c r="G10" t="n">
-        <v>4989483</v>
+        <v>4117421</v>
       </c>
       <c r="H10" t="n">
-        <v>1887</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6</v>
-      </c>
+        <v>30178</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>9239500</v>
+        <v>13831000</v>
       </c>
       <c r="K10" t="n">
-        <v>56992</v>
+        <v>56166</v>
       </c>
       <c r="L10" t="n">
-        <v>109256</v>
+        <v>148809</v>
       </c>
       <c r="M10" t="n">
-        <v>1858995</v>
+        <v>2246740</v>
       </c>
       <c r="N10" t="n">
-        <v>443297</v>
+        <v>976689</v>
       </c>
       <c r="O10" t="n">
-        <v>3641</v>
+        <v>7420</v>
       </c>
       <c r="P10" t="n">
-        <v>25818</v>
+        <v>52290</v>
       </c>
       <c r="Q10" t="n">
-        <v>34027</v>
+        <v>47408</v>
       </c>
       <c r="R10" t="n">
-        <v>169602</v>
+        <v>442390</v>
       </c>
       <c r="S10" t="n">
-        <v>150555</v>
+        <v>681298</v>
       </c>
       <c r="T10" t="n">
-        <v>505884</v>
+        <v>1887459</v>
       </c>
       <c r="U10" t="n">
-        <v>57283</v>
+        <v>122841</v>
       </c>
       <c r="V10" t="n">
-        <v>57255</v>
+        <v>870366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>252728</v>
+        <v>453316</v>
       </c>
       <c r="C11" t="n">
-        <v>84412</v>
+        <v>97180</v>
       </c>
       <c r="D11" t="n">
-        <v>224694</v>
+        <v>1468232</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="F11" t="n">
-        <v>142873</v>
+        <v>56183</v>
       </c>
       <c r="G11" t="n">
-        <v>4677146</v>
+        <v>3537022</v>
       </c>
       <c r="H11" t="n">
-        <v>4283</v>
+        <v>27186</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>9003300</v>
+        <v>14122000</v>
       </c>
       <c r="K11" t="n">
-        <v>158596</v>
+        <v>54218</v>
       </c>
       <c r="L11" t="n">
-        <v>69171</v>
+        <v>121551</v>
       </c>
       <c r="M11" t="n">
-        <v>1679619</v>
+        <v>2347188</v>
       </c>
       <c r="N11" t="n">
-        <v>538980</v>
+        <v>904982</v>
       </c>
       <c r="O11" t="n">
-        <v>1349</v>
+        <v>22248</v>
       </c>
       <c r="P11" t="n">
-        <v>31756</v>
+        <v>62986</v>
       </c>
       <c r="Q11" t="n">
-        <v>55613</v>
+        <v>52242</v>
       </c>
       <c r="R11" t="n">
-        <v>211206</v>
+        <v>352398</v>
       </c>
       <c r="S11" t="n">
-        <v>167363</v>
+        <v>1116831</v>
       </c>
       <c r="T11" t="n">
-        <v>607806</v>
+        <v>2207283</v>
       </c>
       <c r="U11" t="n">
-        <v>50059</v>
+        <v>219044</v>
       </c>
       <c r="V11" t="n">
-        <v>45617</v>
+        <v>713206</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>224373</v>
+        <v>499859</v>
       </c>
       <c r="C12" t="n">
-        <v>93494</v>
+        <v>82415</v>
       </c>
       <c r="D12" t="n">
-        <v>248667</v>
+        <v>1643102</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>191195</v>
+        <v>57567</v>
       </c>
       <c r="G12" t="n">
-        <v>4959058</v>
+        <v>3099695</v>
       </c>
       <c r="H12" t="n">
-        <v>9017</v>
+        <v>23547</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>10573000</v>
+        <v>14934000</v>
       </c>
       <c r="K12" t="n">
-        <v>205268</v>
+        <v>30766</v>
       </c>
       <c r="L12" t="n">
-        <v>146062</v>
+        <v>181887</v>
       </c>
       <c r="M12" t="n">
-        <v>2398556</v>
+        <v>2033057</v>
       </c>
       <c r="N12" t="n">
-        <v>659566</v>
+        <v>1184445</v>
       </c>
       <c r="O12" t="n">
-        <v>818</v>
+        <v>28061</v>
       </c>
       <c r="P12" t="n">
-        <v>43612</v>
+        <v>39602</v>
       </c>
       <c r="Q12" t="n">
-        <v>90859</v>
+        <v>56758</v>
       </c>
       <c r="R12" t="n">
-        <v>212477</v>
+        <v>311375</v>
       </c>
       <c r="S12" t="n">
-        <v>196692</v>
+        <v>1793997</v>
       </c>
       <c r="T12" t="n">
-        <v>713023</v>
+        <v>2656159</v>
       </c>
       <c r="U12" t="n">
-        <v>68440</v>
+        <v>66394</v>
       </c>
       <c r="V12" t="n">
-        <v>112347</v>
+        <v>648240</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>319079</v>
+        <v>532511</v>
       </c>
       <c r="C13" t="n">
-        <v>84289</v>
+        <v>125560</v>
       </c>
       <c r="D13" t="n">
-        <v>269918</v>
+        <v>2010004</v>
       </c>
       <c r="E13" t="n">
-        <v>66</v>
+        <v>31414</v>
       </c>
       <c r="F13" t="n">
-        <v>200888</v>
+        <v>82626</v>
       </c>
       <c r="G13" t="n">
-        <v>5210054</v>
+        <v>3373061</v>
       </c>
       <c r="H13" t="n">
-        <v>7751</v>
+        <v>36526</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>11601100</v>
+        <v>18096000</v>
       </c>
       <c r="K13" t="n">
-        <v>188357</v>
+        <v>47110</v>
       </c>
       <c r="L13" t="n">
-        <v>91694</v>
+        <v>227356</v>
       </c>
       <c r="M13" t="n">
-        <v>2688152</v>
+        <v>2360811</v>
       </c>
       <c r="N13" t="n">
-        <v>842455</v>
+        <v>1671581</v>
       </c>
       <c r="O13" t="n">
-        <v>395</v>
+        <v>1328</v>
       </c>
       <c r="P13" t="n">
-        <v>63455</v>
+        <v>39711</v>
       </c>
       <c r="Q13" t="n">
-        <v>86427</v>
+        <v>132379</v>
       </c>
       <c r="R13" t="n">
-        <v>211843</v>
+        <v>379993</v>
       </c>
       <c r="S13" t="n">
-        <v>245781</v>
+        <v>2275455</v>
       </c>
       <c r="T13" t="n">
-        <v>838247</v>
+        <v>3308620</v>
       </c>
       <c r="U13" t="n">
-        <v>61279</v>
+        <v>258055</v>
       </c>
       <c r="V13" t="n">
-        <v>190970</v>
+        <v>454230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>347376</v>
-      </c>
-      <c r="C14" t="n">
-        <v>70157</v>
-      </c>
-      <c r="D14" t="n">
-        <v>335809</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>206220</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4886649</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6430</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>11171600</v>
-      </c>
-      <c r="K14" t="n">
-        <v>116451</v>
-      </c>
-      <c r="L14" t="n">
-        <v>118176</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2412487</v>
-      </c>
-      <c r="N14" t="n">
-        <v>946187</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3437</v>
-      </c>
-      <c r="P14" t="n">
-        <v>53655</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>85028</v>
-      </c>
-      <c r="R14" t="n">
-        <v>163897</v>
-      </c>
-      <c r="S14" t="n">
-        <v>309554</v>
-      </c>
-      <c r="T14" t="n">
-        <v>821105</v>
-      </c>
-      <c r="U14" t="n">
-        <v>77046</v>
-      </c>
-      <c r="V14" t="n">
-        <v>211945</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>421738</v>
-      </c>
-      <c r="C15" t="n">
-        <v>77181</v>
-      </c>
-      <c r="D15" t="n">
-        <v>288056</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>180003</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4555498</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6435</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>11758600</v>
-      </c>
-      <c r="K15" t="n">
-        <v>65693</v>
-      </c>
-      <c r="L15" t="n">
-        <v>121983</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2879807</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1151099</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1822</v>
-      </c>
-      <c r="P15" t="n">
-        <v>82079</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>103586</v>
-      </c>
-      <c r="R15" t="n">
-        <v>242910</v>
-      </c>
-      <c r="S15" t="n">
-        <v>275026</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1036158</v>
-      </c>
-      <c r="U15" t="n">
-        <v>36495</v>
-      </c>
-      <c r="V15" t="n">
-        <v>233046</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>445559</v>
-      </c>
-      <c r="C16" t="n">
-        <v>65021</v>
-      </c>
-      <c r="D16" t="n">
-        <v>275511</v>
-      </c>
-      <c r="E16" t="n">
-        <v>930</v>
-      </c>
-      <c r="F16" t="n">
-        <v>152227</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3993872</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7757</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>11956200</v>
-      </c>
-      <c r="K16" t="n">
-        <v>71813</v>
-      </c>
-      <c r="L16" t="n">
-        <v>123949</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3462611</v>
-      </c>
-      <c r="N16" t="n">
-        <v>946340</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2097</v>
-      </c>
-      <c r="P16" t="n">
-        <v>82338</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>57349</v>
-      </c>
-      <c r="R16" t="n">
-        <v>220290</v>
-      </c>
-      <c r="S16" t="n">
-        <v>325466</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1248588</v>
-      </c>
-      <c r="U16" t="n">
-        <v>56222</v>
-      </c>
-      <c r="V16" t="n">
-        <v>418216</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>418607</v>
-      </c>
-      <c r="C17" t="n">
-        <v>43398</v>
-      </c>
-      <c r="D17" t="n">
-        <v>383556</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>153386</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3954290</v>
-      </c>
-      <c r="H17" t="n">
-        <v>14338</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>12626700</v>
-      </c>
-      <c r="K17" t="n">
-        <v>72131</v>
-      </c>
-      <c r="L17" t="n">
-        <v>155876</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2899484</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1202313</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2894</v>
-      </c>
-      <c r="P17" t="n">
-        <v>78941</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>43334</v>
-      </c>
-      <c r="R17" t="n">
-        <v>225022</v>
-      </c>
-      <c r="S17" t="n">
-        <v>452936</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1004973</v>
-      </c>
-      <c r="U17" t="n">
-        <v>24292</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1496889</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>508944</v>
-      </c>
-      <c r="C18" t="n">
-        <v>36512</v>
-      </c>
-      <c r="D18" t="n">
-        <v>844249</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>189770</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3549230</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25411</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>12600100</v>
-      </c>
-      <c r="K18" t="n">
-        <v>49038</v>
-      </c>
-      <c r="L18" t="n">
-        <v>247744</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1965528</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1587016</v>
-      </c>
-      <c r="O18" t="n">
-        <v>9437</v>
-      </c>
-      <c r="P18" t="n">
-        <v>26732</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>42159</v>
-      </c>
-      <c r="R18" t="n">
-        <v>214677</v>
-      </c>
-      <c r="S18" t="n">
-        <v>651989</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1613171</v>
-      </c>
-      <c r="U18" t="n">
-        <v>9634</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1028901</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>558803</v>
-      </c>
-      <c r="C19" t="n">
-        <v>41914</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2091861</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3057</v>
-      </c>
-      <c r="F19" t="n">
-        <v>107492</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3350619</v>
-      </c>
-      <c r="H19" t="n">
-        <v>30516</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>13103500</v>
-      </c>
-      <c r="K19" t="n">
-        <v>56723</v>
-      </c>
-      <c r="L19" t="n">
-        <v>261940</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1685559</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1147808</v>
-      </c>
-      <c r="O19" t="n">
-        <v>7747</v>
-      </c>
-      <c r="P19" t="n">
-        <v>69846</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>56951</v>
-      </c>
-      <c r="R19" t="n">
-        <v>352132</v>
-      </c>
-      <c r="S19" t="n">
-        <v>684373</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1673855</v>
-      </c>
-      <c r="U19" t="n">
-        <v>130198</v>
-      </c>
-      <c r="V19" t="n">
-        <v>792119</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>472737</v>
-      </c>
-      <c r="C20" t="n">
-        <v>90107</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1166127</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12</v>
-      </c>
-      <c r="F20" t="n">
-        <v>80131</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4117421</v>
-      </c>
-      <c r="H20" t="n">
-        <v>30178</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>13496600</v>
-      </c>
-      <c r="K20" t="n">
-        <v>56166</v>
-      </c>
-      <c r="L20" t="n">
-        <v>148809</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2246740</v>
-      </c>
-      <c r="N20" t="n">
-        <v>976689</v>
-      </c>
-      <c r="O20" t="n">
-        <v>7420</v>
-      </c>
-      <c r="P20" t="n">
-        <v>52290</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>47408</v>
-      </c>
-      <c r="R20" t="n">
-        <v>442390</v>
-      </c>
-      <c r="S20" t="n">
-        <v>681298</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1887459</v>
-      </c>
-      <c r="U20" t="n">
-        <v>122841</v>
-      </c>
-      <c r="V20" t="n">
-        <v>870366</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>453316</v>
-      </c>
-      <c r="C21" t="n">
-        <v>97180</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1468232</v>
-      </c>
-      <c r="E21" t="n">
-        <v>166</v>
-      </c>
-      <c r="F21" t="n">
-        <v>56183</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3537022</v>
-      </c>
-      <c r="H21" t="n">
-        <v>27186</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>13813462</v>
-      </c>
-      <c r="K21" t="n">
-        <v>54218</v>
-      </c>
-      <c r="L21" t="n">
-        <v>121551</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2347188</v>
-      </c>
-      <c r="N21" t="n">
-        <v>904982</v>
-      </c>
-      <c r="O21" t="n">
-        <v>22248</v>
-      </c>
-      <c r="P21" t="n">
-        <v>62986</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>52242</v>
-      </c>
-      <c r="R21" t="n">
-        <v>352398</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1116831</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2207283</v>
-      </c>
-      <c r="U21" t="n">
-        <v>219044</v>
-      </c>
-      <c r="V21" t="n">
-        <v>713206</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>499859</v>
-      </c>
-      <c r="C22" t="n">
-        <v>82415</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1643102</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>57567</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3099695</v>
-      </c>
-      <c r="H22" t="n">
-        <v>23547</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>14436926</v>
-      </c>
-      <c r="K22" t="n">
-        <v>30766</v>
-      </c>
-      <c r="L22" t="n">
-        <v>181887</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2033057</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1184445</v>
-      </c>
-      <c r="O22" t="n">
-        <v>28061</v>
-      </c>
-      <c r="P22" t="n">
-        <v>39602</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>56758</v>
-      </c>
-      <c r="R22" t="n">
-        <v>311375</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1793997</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2656159</v>
-      </c>
-      <c r="U22" t="n">
-        <v>66394</v>
-      </c>
-      <c r="V22" t="n">
-        <v>648240</v>
-      </c>
+        <v>18913241</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
